--- a/myapp/Data Excel.xlsx
+++ b/myapp/Data Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEBSITE\PRANAUGI.COM\PENELUSURAN LITERATUR\Aplikasi Regresi Data Panel pada Data Kinerja Keuangan Perusahaan yang Terdaftar di BEI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE4F9EB-637F-44CC-9BE7-D8230C087560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FC86C6-FF6B-48D5-B7FC-F640F055AF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="97">
   <si>
     <t>Judul</t>
   </si>
@@ -246,6 +246,78 @@
   </si>
   <si>
     <t>0.062 atau 6.2%</t>
+  </si>
+  <si>
+    <t>Jurnal Bisnis dan Akuntansi</t>
+  </si>
+  <si>
+    <t>UKURAN DEWAN, KEBERAGAMAN DEWAN DAN PENGUNGKAPAN TANGGUNG JAWAB SOSIAL PERUSAHAAN: PERAN KONEKSI POLITIK</t>
+  </si>
+  <si>
+    <t>1410-9875</t>
+  </si>
+  <si>
+    <t>2656-9124</t>
+  </si>
+  <si>
+    <t>Teddy Jurnali, Nova Sari Manurung</t>
+  </si>
+  <si>
+    <t>https://jurnaltsm.id/index.php/JBA/article/view/1722</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.34208/jba.v25i1.1722</t>
+  </si>
+  <si>
+    <t>Ukuran Dewan, Keragaman Gender Dewan, Leverage, Ukuran Perusahaan, ROA, Umur Perusahaan, Koneksi Politik, Pengungkapan Tanggung Jawab Sosial Perusahaan</t>
+  </si>
+  <si>
+    <t>EViews</t>
+  </si>
+  <si>
+    <t>Metode analisis data yang digunakan dalam penelitian ini adalah Moderated Regression Analysis (MRA) untuk menguji pengaruh variable dependen, independen, dan moderasi dengan menggunakan software Eviews. Langkah analisis data dimulai dari melakukan uji statistik deskriptif, pemilihan model terbaik melalui uji Chow dan uji Hausman, serta uji hipotesis yang terdiri dari uji F, uji t, dan koefisien determinasi.</t>
+  </si>
+  <si>
+    <t>Populasi penelitian terdiri dari perusahaan manufaktur dan pertambangan yang terdaftar di Bursa Efek Indonesia (BEI) periode 2017-2021</t>
+  </si>
+  <si>
+    <t>statistik deskriptif, uji chow, uji hausman, uji hipotesis, Moderated Regression Analysis (MRA)</t>
+  </si>
+  <si>
+    <t>PERAN PROFITABILITAS SEBAGAI PENENTU KUALITAS PELAPORAN KEUANGAN</t>
+  </si>
+  <si>
+    <t>Jurnal Akuntansi Multiparadigma</t>
+  </si>
+  <si>
+    <t>2086-7603</t>
+  </si>
+  <si>
+    <t>2089-5879</t>
+  </si>
+  <si>
+    <t>Rida Ristiyana, Erwindiawan Erwindiawan</t>
+  </si>
+  <si>
+    <t>https://jamal.ub.ac.id/index.php/jamal/article/view/1434</t>
+  </si>
+  <si>
+    <t>https://dx.doi.org/10.21776/ub.jamal.2021.12.1.13</t>
+  </si>
+  <si>
+    <t>Sikuls Operasi, Volatilitas Penjualan, Ukuran Perusahaan, Umur Perusahaan, Profitabilitas, Kualitas Laporan Keuangan</t>
+  </si>
+  <si>
+    <t>Tidak Ada Informasi</t>
+  </si>
+  <si>
+    <t>Statistik Deskriptif, uji persamaan regresi data panel, uji hipotesis, uji sobel</t>
+  </si>
+  <si>
+    <t>Metode - Metode penelitian menggunakan regresi data panel dan analisis jalur. Adapun sampel dalam penelitian ini adalah 28 perusahaan LQ-45 periode 2015-2018.</t>
+  </si>
+  <si>
+    <t>Tidak ada uji asumsi klasik, uji pemilihan model juga tidak ada</t>
   </si>
 </sst>
 </file>
@@ -581,9 +653,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X5" sqref="X5"/>
+      <selection pane="bottomLeft" activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,12 +1005,126 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H6" s="2"/>
+    <row r="6" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+    <row r="7" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H8" s="2"/>
@@ -965,6 +1151,10 @@
     <hyperlink ref="I4" r:id="rId5" xr:uid="{D4FDE11A-0EC3-4B83-BB29-CBDD44160CB8}"/>
     <hyperlink ref="H5" r:id="rId6" xr:uid="{77A783D7-8FDF-4099-B155-AA0444B0D01D}"/>
     <hyperlink ref="I5" r:id="rId7" xr:uid="{DBCF5FFE-ED60-4FC2-B842-3141787CBD16}"/>
+    <hyperlink ref="H6" r:id="rId8" xr:uid="{F11B4FB8-EA80-4813-85E4-54E62D2411CE}"/>
+    <hyperlink ref="I6" r:id="rId9" xr:uid="{06FDFB61-A484-44B5-AD1E-BB2CB89AE77E}"/>
+    <hyperlink ref="H7" r:id="rId10" xr:uid="{49139186-CC26-4889-8B42-AF54F8C45D93}"/>
+    <hyperlink ref="I7" r:id="rId11" xr:uid="{F1394D07-EDB7-498F-BA19-C558BE2BC54E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
